--- a/BTD6/BTD6Money.xlsx
+++ b/BTD6/BTD6Money.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krieberger\Documents\GitHub\PythonScripts\BTD6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F88CD-A6E7-4899-A1BE-FC21B540E61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6346D115-C3F7-483B-A30B-0E5681EDF58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B5991DDE-82D8-4A72-8C38-74B10D674B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="BTD6Money" sheetId="1" r:id="rId1"/>
-    <sheet name="Values" sheetId="2" r:id="rId2"/>
+    <sheet name="Values" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,15 +91,16 @@
     <t>ABS</t>
   </si>
   <si>
-    <t>Alternate</t>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -599,23 +600,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1053,117 +1055,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D97AC3-DB9E-4440-BEF1-AB757D7374B4}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6">
-        <v>31</v>
-      </c>
-      <c r="E4" s="6">
-        <v>39</v>
-      </c>
-      <c r="G4" s="6">
-        <v>844</v>
-      </c>
-      <c r="I4" s="7" cm="1">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" cm="1">
         <f t="array" ref="I4">IF(B4="Alternate", SUM(INDEX(Values!F4:F143,D4,1):INDEX(Values!F4:F143,E4,1),G4,-(K4:K19)), IF(B4="Half Cash", SUM(INDEX(Values!C4:C143,D4,1):INDEX(Values!C4:C143,E4,1)/2,G4,-(K4:K19)), SUM(INDEX(Values!C4:C143,D4,1):INDEX(Values!C4:C143,E4,1),G4,-(K4:K19))))</f>
-        <v>9912</v>
-      </c>
-      <c r="K4" s="5"/>
+        <v>771</v>
+      </c>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K5" s="5"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K6" s="5"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K7" s="5"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K8" s="5"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="5"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K10" s="5"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K11" s="5"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K12" s="5"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K13" s="5"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K14" s="5"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K15" s="5"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K16" s="5"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="5"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="5"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="5"/>
+      <c r="K19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1206,21 +1206,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F4CE9-6FA5-4FC5-8D22-9CB8ABB392C0}">
   <dimension ref="B2:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">

--- a/BTD6/BTD6Money.xlsx
+++ b/BTD6/BTD6Money.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krieberger\Documents\GitHub\PythonScripts\BTD6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6346D115-C3F7-483B-A30B-0E5681EDF58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAACD43-223E-419A-8EAE-8D3EB4F8640A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B5991DDE-82D8-4A72-8C38-74B10D674B3C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B5991DDE-82D8-4A72-8C38-74B10D674B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="BTD6Money" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Round</t>
   </si>
@@ -93,6 +93,9 @@
   <si>
     <t>Normal</t>
   </si>
+  <si>
+    <t>"From the start of round xx to the end of round xx"</t>
+  </si>
 </sst>
 </file>
 
@@ -100,7 +103,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -600,7 +603,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -611,13 +614,16 @@
     <xf numFmtId="6" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1055,7 +1061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D97AC3-DB9E-4440-BEF1-AB757D7374B4}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1076,10 +1084,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1111,63 +1119,70 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
+      <c r="G4" s="5"/>
       <c r="I4" s="5" cm="1">
         <f t="array" ref="I4">IF(B4="Alternate", SUM(INDEX(Values!F4:F143,D4,1):INDEX(Values!F4:F143,E4,1),G4,-(K4:K19)), IF(B4="Half Cash", SUM(INDEX(Values!C4:C143,D4,1):INDEX(Values!C4:C143,E4,1)/2,G4,-(K4:K19)), SUM(INDEX(Values!C4:C143,D4,1):INDEX(Values!C4:C143,E4,1),G4,-(K4:K19))))</f>
         <v>771</v>
       </c>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K5" s="8"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K8" s="8"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="8"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K10" s="8"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K11" s="8"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K12" s="8"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K13" s="8"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K14" s="8"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K15" s="8"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K16" s="8"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="8"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="8"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="8"/>
+      <c r="K19" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D5:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="B4">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Half Cash">
@@ -1186,7 +1201,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Start Value" error="Please enter a value between 1 and 140." sqref="D4" xr:uid="{D6C41A8A-842E-4572-BE03-4092BBB8BF2F}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Start Value" error="Please enter a value between 1 and 140." sqref="D4" xr:uid="{D6C41A8A-842E-4572-BE03-4092BBB8BF2F}">
       <formula1>1</formula1>
       <formula2>140</formula2>
     </dataValidation>
@@ -1213,14 +1228,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">

--- a/BTD6/BTD6Money.xlsx
+++ b/BTD6/BTD6Money.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krieberger\Documents\GitHub\PythonScripts\BTD6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAACD43-223E-419A-8EAE-8D3EB4F8640A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90CA3B-42E1-48FE-8327-9CBE32449275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B5991DDE-82D8-4A72-8C38-74B10D674B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B5991DDE-82D8-4A72-8C38-74B10D674B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="BTD6Money" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>"From the start of round xx to the end of round xx"</t>
+    <t>"From the start of round xx to the end of round yy"</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1062,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+      <selection activeCell="D5" sqref="D5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,9 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
       <c r="I4" s="5" cm="1">
         <f t="array" ref="I4">IF(B4="Alternate", SUM(INDEX(Values!F4:F143,D4,1):INDEX(Values!F4:F143,E4,1),G4,-(K4:K19)), IF(B4="Half Cash", SUM(INDEX(Values!C4:C143,D4,1):INDEX(Values!C4:C143,E4,1)/2,G4,-(K4:K19)), SUM(INDEX(Values!C4:C143,D4,1):INDEX(Values!C4:C143,E4,1),G4,-(K4:K19))))</f>
         <v>771</v>
@@ -1201,11 +1203,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Start Value" error="Please enter a value between 1 and 140." sqref="D4" xr:uid="{D6C41A8A-842E-4572-BE03-4092BBB8BF2F}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Start Value" error="Please enter a value between 1 and 140." promptTitle="xx" sqref="D4" xr:uid="{D6C41A8A-842E-4572-BE03-4092BBB8BF2F}">
       <formula1>1</formula1>
       <formula2>140</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid End Value" error="Please enter a value between 1 and 140." sqref="E4" xr:uid="{62588C20-EB08-4966-B4F3-E2506CAF64A4}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid End Value" error="Please enter a value between 1 and 140." promptTitle="yy" sqref="E4" xr:uid="{62588C20-EB08-4966-B4F3-E2506CAF64A4}">
       <formula1>1</formula1>
       <formula2>140</formula2>
     </dataValidation>
